--- a/miscellaneous/exclusions.xlsx
+++ b/miscellaneous/exclusions.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheeky\RProjects\listing_model_AIRBNB\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E5DDE3-F90A-42EA-8907-EF7A579CA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9627053-2777-474B-9F83-8E243846D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1 - Support fields" sheetId="2" r:id="rId1"/>
-    <sheet name="Round 2 - quality" sheetId="1" r:id="rId2"/>
+    <sheet name="Round 2 - Quality" sheetId="1" r:id="rId2"/>
+    <sheet name="Round 3 - Correlation dependent" sheetId="3" r:id="rId3"/>
+    <sheet name="Round 4 - Corr. independent" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Round 2 - quality'!$B$1:$B$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round 1 - Support fields'!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Round 2 - Quality'!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Round 4 - Corr. independent'!$B$1:$B$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="158">
   <si>
     <t>Column name</t>
   </si>
@@ -162,9 +166,6 @@
     <t>neighbourhood_cleansed</t>
   </si>
   <si>
-    <t>neighboourhood_group_cleansed</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -222,9 +223,6 @@
     <t>bed_type</t>
   </si>
   <si>
-    <t>amentities</t>
-  </si>
-  <si>
     <t>Big impact potentially?</t>
   </si>
   <si>
@@ -426,7 +424,100 @@
     <t>Almost all NA</t>
   </si>
   <si>
-    <t>Target variable</t>
+    <t>log_price</t>
+  </si>
+  <si>
+    <t>has_tv</t>
+  </si>
+  <si>
+    <t>has_internet</t>
+  </si>
+  <si>
+    <t>has_wifi</t>
+  </si>
+  <si>
+    <t>has_parking</t>
+  </si>
+  <si>
+    <t>calendar_updated_cleansed</t>
+  </si>
+  <si>
+    <t>review_period</t>
+  </si>
+  <si>
+    <t>Dependent variable</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Only considering non-responders</t>
+  </si>
+  <si>
+    <t>Correlation below 0.1</t>
+  </si>
+  <si>
+    <t>Only considering certain neighbourhoods</t>
+  </si>
+  <si>
+    <t>Only considering  Loft/Apartment or not</t>
+  </si>
+  <si>
+    <t>Only considering flexible, strict 14 or other</t>
+  </si>
+  <si>
+    <t>host_response_time_N.A</t>
+  </si>
+  <si>
+    <t>neighbourhood_cleansed_Alexanderplatz</t>
+  </si>
+  <si>
+    <t>neighbourhood_cleansed_Brunnenstr..Süd</t>
+  </si>
+  <si>
+    <t>neighbourhood_group_cleansed_Neukölln</t>
+  </si>
+  <si>
+    <t>property_type_Apartment</t>
+  </si>
+  <si>
+    <t>property_type_Loft</t>
+  </si>
+  <si>
+    <t>room_type_Entire.home.apt</t>
+  </si>
+  <si>
+    <t>room_type_Private.room</t>
+  </si>
+  <si>
+    <t>room_type_Shared.room</t>
+  </si>
+  <si>
+    <t>cancellation_policy_flexible</t>
+  </si>
+  <si>
+    <t>cancellation_policy_strict_14_with_grace_period</t>
+  </si>
+  <si>
+    <t>Dropped over beds</t>
+  </si>
+  <si>
+    <t>Dropped over cleaning fee</t>
+  </si>
+  <si>
+    <t>Dropped over accommodates</t>
+  </si>
+  <si>
+    <t>Dropped over availability_90</t>
+  </si>
+  <si>
+    <t>Dropped over property_type_apartment</t>
+  </si>
+  <si>
+    <t>Dropped over room_type_entire.home.apt</t>
+  </si>
+  <si>
+    <t>Dropped over cancellation_policy_flexible</t>
   </si>
 </sst>
 </file>
@@ -770,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,7 +872,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,35 +893,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,46 +1028,46 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,29 +1078,29 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,24 +1161,24 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,7 +1215,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -1148,7 +1239,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1167,7 +1258,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -1175,7 +1266,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1183,7 +1274,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1191,7 +1282,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1199,7 +1290,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1207,7 +1298,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -1215,7 +1306,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1223,7 +1314,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -1231,7 +1322,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -1239,7 +1330,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -1247,7 +1338,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -1255,7 +1346,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -1263,7 +1354,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -1271,7 +1362,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -1279,7 +1370,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -1287,7 +1378,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1295,7 +1386,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1303,7 +1394,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -1311,7 +1402,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1319,7 +1410,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -1327,7 +1418,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -1335,29 +1426,29 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -1365,7 +1456,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -1373,7 +1464,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -1381,7 +1472,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -1389,7 +1480,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -1397,7 +1488,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -1405,7 +1496,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -1413,7 +1504,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -1421,7 +1512,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -1429,7 +1520,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -1437,7 +1528,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -1445,7 +1536,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -1453,18 +1544,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -1472,7 +1563,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -1480,7 +1571,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -1488,7 +1579,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -1496,7 +1587,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -1504,7 +1595,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -1512,7 +1603,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -1520,7 +1611,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -1528,7 +1619,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -1536,7 +1627,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -1544,7 +1635,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -1552,7 +1643,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -1560,7 +1651,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -1568,7 +1659,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -1576,7 +1667,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -1584,7 +1675,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -1592,7 +1683,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -1600,7 +1691,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -1608,7 +1699,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -1616,24 +1707,24 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B97" xr:uid="{9F926A19-9E9B-477D-A61D-26F5BE0B9060}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,182 +1743,1424 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B80" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60880452-B952-4401-88E7-9372AAB79BEB}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A5AE89-8855-4548-8AE6-0742D0E586FD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1835,7 +3168,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1843,557 +3176,109 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B80" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}">
+  <autoFilter ref="B1:B30" xr:uid="{59A5AE89-8855-4548-8AE6-0742D0E586FD}">
     <filterColumn colId="0">
       <filters>
         <filter val="-"/>

--- a/miscellaneous/exclusions.xlsx
+++ b/miscellaneous/exclusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheeky\RProjects\listing_model_AIRBNB\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9627053-2777-474B-9F83-8E243846D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFC964-8B02-4A83-9315-020E8AF54622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1 - Support fields" sheetId="2" r:id="rId1"/>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2983,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>

--- a/miscellaneous/exclusions.xlsx
+++ b/miscellaneous/exclusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheeky\RProjects\listing_model_AIRBNB\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFC964-8B02-4A83-9315-020E8AF54622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04230787-ABE2-4414-BD5C-942B1F807C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
+    <workbookView xWindow="32175" yWindow="1650" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1 - Support fields" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="158">
   <si>
     <t>Column name</t>
   </si>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,10 +1792,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1849,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60880452-B952-4401-88E7-9372AAB79BEB}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/miscellaneous/exclusions.xlsx
+++ b/miscellaneous/exclusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheeky\RProjects\listing_model_AIRBNB\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04230787-ABE2-4414-BD5C-942B1F807C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B7EF51-B340-41A1-895D-0E03582DCE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32175" yWindow="1650" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{578113F5-FCCA-4DA9-B32C-EE2B16BF48E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1 - Support fields" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="159">
   <si>
     <t>Column name</t>
   </si>
@@ -331,9 +331,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Record key</t>
-  </si>
-  <si>
     <t>Not working with URLs</t>
   </si>
   <si>
@@ -518,6 +515,12 @@
   </si>
   <si>
     <t>Dropped over cancellation_policy_flexible</t>
+  </si>
+  <si>
+    <t>Dropped over country code</t>
+  </si>
+  <si>
+    <t>Dropped over latitude, longitude</t>
   </si>
 </sst>
 </file>
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F926A19-9E9B-477D-A61D-26F5BE0B9060}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +883,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,40 +894,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <f>IF(B2="N",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">IF(B3="N",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -932,10 +947,14 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -943,134 +962,194 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1080,21 +1159,29 @@
       <c r="C21" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1102,144 +1189,212 @@
       <c r="C23" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>106</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>107</v>
-      </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1247,470 +1402,714 @@
       <c r="C40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>114</v>
       </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>115</v>
-      </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F97" si="1">IF(B67="N",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>119</v>
       </c>
-      <c r="B89" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
       <c r="B90" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>121</v>
       </c>
-      <c r="B94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>122</v>
-      </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f>SUM(F1:F97)</f>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1723,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BAFF7A-36EE-464F-8A10-F92B4EB1ADB0}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,18 +2150,18 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,7 +2435,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2185,7 +2584,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -2223,7 +2622,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -2255,7 +2654,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -2397,13 +2796,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2845,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -2457,7 +2856,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -2492,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60880452-B952-4401-88E7-9372AAB79BEB}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2520,18 +2919,18 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,10 +2938,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2553,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,18 +2974,18 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2597,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2608,18 +3007,18 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2630,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,10 +3037,10 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,7 +3093,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2702,29 +3101,29 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2748,7 +3147,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2770,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,12 +3180,12 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2832,12 +3231,12 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -2851,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2903,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2914,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +3332,10 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2947,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2968,10 +3367,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A5AE89-8855-4548-8AE6-0742D0E586FD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -2993,13 +3391,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,7 +3416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3026,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,7 +3435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -3045,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,18 +3454,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3075,21 +3473,21 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3097,10 +3495,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3108,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,7 +3517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -3127,12 +3525,12 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -3148,7 +3546,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -3156,26 +3554,26 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -3183,7 +3581,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3191,26 +3589,26 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>144</v>
-      </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -3218,62 +3616,55 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>146</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>149</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B30" xr:uid="{59A5AE89-8855-4548-8AE6-0742D0E586FD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="-"/>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B30" xr:uid="{59A5AE89-8855-4548-8AE6-0742D0E586FD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>